--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/80_Yozgat_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/80_Yozgat_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73B51750-6F75-480B-8EA7-D44D7CABCB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAF90F22-2B6F-465A-AF15-58CF46520B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{31883F4F-1EFA-41DC-BBDE-A3D72602BB34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{95927799-E212-451C-B353-EE09C0C02E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="103" r:id="rId1"/>
@@ -969,13 +969,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D941FEA7-568B-467C-BA31-2AB04756373E}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3A46E722-03F5-4D32-987B-044E66E95FEC}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{28D45247-FB79-45EB-B1AC-6A3896A58648}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7496FDFD-B7E2-4C3E-9B99-3E9AC518D18C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C436DE2C-2D66-4008-BFF1-11E1048D024A}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{6DF0E14E-E746-47F8-AA0C-6DFD6713C375}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D43CEB95-06EF-478A-B09F-8DFF7CAE330E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A1D8C663-4DF3-43ED-A339-FE145067CAF9}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DD97DB67-3B32-4D97-AC97-0D52A3F27AE8}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{28DB2B5B-470A-4E7D-9D88-E90AC40B82BF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{140E3D06-5C03-4B79-8184-A2F3297890E2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F86369A3-7BF4-4A15-8FFB-1075BB49BF87}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{1D1537B2-4ADC-4985-B3A2-0932B9F124C4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0C84DCF0-D6AA-4764-8341-B9425FDE251A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1345,7 +1345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB61D526-0E7F-402C-9140-FC603B81BA4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB296442-9FAE-4FA4-9DB6-168737D38A75}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2572,18 +2572,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F73000D-BAB1-4364-9B76-D1AC58AAF9EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67DC7C66-F009-4CB0-8DC1-3B6BA79C0FE3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C575AE57-1E6D-4EDF-B584-2B44692B8E13}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FF860AF7-7716-4D8B-AE4E-B5511E6E9F6C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E374248-6233-4F14-A87C-80DAA3DEBB30}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E583C8F9-104A-486C-895E-A64E4FD718BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4FAAE7F-9198-42DB-B428-0169567FD655}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1C0FD06-285B-4DFD-933C-E9702FB97735}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56DD7716-EB44-40D4-A990-A950C290A6E7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{586B0C01-4679-4E87-86FB-C3E85F430892}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1EA3B72-1B27-40D7-BE0C-0053D5B06DE4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7FFE49DC-9385-453D-8146-8E575C04A692}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F2651DD-A0E5-46C4-AEA2-C983CC603B78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7D9A888-8435-49C0-9238-574620613AC3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D58274D7-D3E2-4DCC-8C69-0D79DC87DAB2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CD3782B3-CFD3-4017-9D9E-62A4E28BBB9C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F698B39D-308D-43F9-8F5A-6F8593F5712B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FA80986C-87B9-4AF5-8A96-753A9976949C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6E25417-7992-491D-B9B8-02E06C56B480}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{876A9776-6746-4EFF-A1E1-392FD316BA1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{337B5FED-C2EB-4935-AA1F-9C3AD497DC0F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA7B88CE-FE07-4AE6-90CD-97E4E603CCE9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE71AAD5-818E-4531-A005-DC2746D9A33D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F73A1FD-B377-4FCB-8D24-D21E92254AB2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2596,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8004BDCD-2A73-49DB-A63F-4DFFEA5ED7AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06721DC8-15D7-4921-88FC-CB8A1C6A6ABF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3803,18 +3803,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82B046F3-3A08-43F2-94C3-8F29B4AD2F78}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7AC0B4E8-7309-4F5A-804E-032E2E318892}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{85D26393-487A-44C3-93A2-4D1F4A9C6348}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AB250D49-5B7A-4BBA-92DA-198FDE3761FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{421BD671-1F47-4F76-AF7C-203FB6E1EB0B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F405C44F-7E3B-4F42-AF6D-D98FB79F5E76}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B5AEF13-6215-4B63-9091-E771AC7E6A47}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B465FD1-4F13-44B5-BE27-AF71EA820E0D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3C6283B-CCE1-4D17-8219-39A6A5E6E5DD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EFBB95DA-8219-4ABB-AE72-9FB7CC8D95BA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{984C59DC-31F7-42B6-BC0D-28D9770E0205}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79B41C4A-D3FA-4533-99B4-A1055743B00B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC2A535A-0226-4E25-A4E2-AF6DB540805C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{43BE33D7-C266-4899-B059-BC74BA2C7B5A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4CD8EF2D-F18E-44BB-A02F-4A0C365BB875}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{59630A97-BB1F-43BE-A4A1-EB0073EA8861}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{08A151DB-8837-4C63-9C4C-A2897E0C89EB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{00F1ABDC-7253-4599-98EF-6EC4C4AC82A3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02EEA8D0-7E57-4ADA-9D30-7F54C1C70B3D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DBF4D4B2-67E3-4E13-BF2D-B70E47D97ADC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E79751E1-3C5C-411D-BBEE-6367EDE11AE6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D30EFA4-37C4-4663-BF50-1570D7DCC8BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9241449-2146-4925-8A5F-2CA9C97E10B0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8F692DF-7C3A-48EF-8793-76852B02E851}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3827,7 +3827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50122818-9090-4824-BAA6-9F0E9C09182C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6A0D76-960D-4971-80ED-5FBBD74D0596}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5032,18 +5032,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{106E896E-164E-4BF2-8BDB-5DAE5D17B9C9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B5036CF-A5ED-4B81-80F2-1208EDC844A2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{692DCE99-5398-4A12-8F66-4FB5C454A804}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{007DCE5E-4CE9-496C-A070-F4E45E2D8908}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{914822B1-D383-420C-A193-D6110C035097}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5032252D-1827-404B-A796-5CED3F699797}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5DD0946B-A4A2-445E-BE54-C4B2F9B52DEB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7106A047-1C71-4F7D-AB04-87C37ED43CAB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{232ACAED-1837-4469-84C6-7CBA72D67D2A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{87DCA07E-E925-4BA7-A252-AF24B7EDFBDE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE73272D-6A65-43EA-A3C7-F494F74FCF3B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D867E5DB-FABB-41E1-B6F2-147755A2E004}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84A78460-7BB3-486A-9E2A-CBC420ED7898}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6208E577-31E5-4D89-8C8A-BEA628813342}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{489B5B32-3080-41BD-8437-710ABDD7BA9F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DB625083-3313-4B48-A8B4-FDEF723DB505}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2262B91E-59F1-4A18-91DA-1DA8D763A551}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E5393067-2EC4-4F36-814B-FEFC1DA7160A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9EE29A0-1BB5-4963-B736-A6A35C25A1B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71827F11-557A-402D-9D35-5CF48E9F73FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6BE113E8-D251-44C2-A19A-661808D40CB2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ADEF86B2-62FE-4ABE-9EB0-85DF14B8BE13}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5ECA0F9B-4758-489C-B996-F167BB490735}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3EA9EBD-F169-4B10-87E3-3F0D0652E454}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5056,7 +5056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0037D209-2787-4AC4-BC44-AB7CDEB34B4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32C1D82-07E4-4D11-AF7E-D39989CD1C9A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6261,18 +6261,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F359D6BE-F0C2-42C5-AA4F-B26814A31556}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D5CE72B-82F9-4275-9DD4-FAB5BC7E8449}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{13FC0CF2-FC02-47EB-9131-8A5DDFA02807}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9608685A-F93A-41BF-8C74-66832B4DBDDF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB502998-15C9-47B9-8191-5097943D5DA4}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EEBA57A2-1F6B-41F7-BF47-59E64D08B410}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF113C81-EBE9-4A5C-895C-DEC9E93C626E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7A2200B-8794-44CC-A076-AAB1FF24B1E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8B416A2-14E3-45C9-89F3-67D697A844BB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C100AD1D-13B0-4471-9B9D-26DA1B37B12D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5ACCE4D-5969-4D11-9713-388EE3B84A54}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DA448FE-3D6E-4D8E-B028-19E73B417A90}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8AC057EC-9338-4418-B35A-D6C8D6D0BCA8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{655646C6-F6CD-452E-9B5F-0D1978D822D7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E90839E2-B1CF-45F4-9D39-F5AB7E372B12}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9E56E153-F6C0-40AB-92ED-29A53CB63067}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB9242B1-795E-4054-AB73-AE66BAD09DF3}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{87FF45CA-3113-469A-A902-0576089E3EB0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D8323C7-341D-4507-9526-F05C2C95FEA8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F8B7C3A-28F0-48E0-AC85-5017DA4D486B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15FB6152-4093-4C24-9906-44A20C182C04}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DB6B6B74-0C8B-428D-939F-18D91C5B19ED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80DC6EAD-94C8-43E9-80B1-51E7F32068B9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A0A51DB0-BB4A-4FCB-8D35-BBB93AAFBA61}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6285,7 +6285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D996BC05-5890-4528-AB91-B0B677EE6D2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EA838B-FB23-47BB-AE89-58201BE59297}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7512,18 +7512,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63D7AAC3-BC0F-42EE-AA21-2D67E2E5E26E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E2E69E0-B197-418B-A600-8E9B3E6F30DB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AEE93B37-65EE-45D2-AA0C-249886F2472A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5E0060FF-2CB9-49A6-A09D-CB4DFBA6E2FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5DE9C981-7E2C-4E28-A190-84E279FDBF9C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{18DA8C11-A2A0-4283-AEE4-F81226429B55}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75333586-EFD3-40A1-A992-83C9AD4458BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48C5B0C5-E5C0-4BC7-AF64-C9CD3E4C746D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2AB68DD-58F6-41E7-8C73-4BB39AF02EA2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{40EFEB8A-AED2-4FC5-8AD2-B146A35F5B88}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01D41B46-BA3B-4978-805E-4411F4217A0D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04F8B5AD-16C4-421C-A61D-9679A9BC9D5B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5BD331E-CF26-43EC-A519-4684DE8BE5C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{049187CD-8927-4BD3-86FF-1118E5636D1E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9D3A9830-61AC-40B4-A595-1477602A5319}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9B6386AB-BDFD-4A8F-B09F-800696E9CE9A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A15E8223-3873-468C-8EAD-C326DB2FB12E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{27ACF333-CB23-4276-AF5D-BFC78E358FA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{776B1940-AC96-4543-8A34-B4649316AA51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32206643-BE29-4668-881A-957720DD1447}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A37B45D-1450-4D50-9DFF-AE1279F4B1CB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3ADC0912-D0DA-4D9A-9CBC-196DEA09CDDB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A67501C1-0381-476E-890C-8EF862EA8640}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7DF218A-5202-4615-86E5-A232775243E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7536,7 +7536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53857C7-D3B8-4645-8B66-895C0DDEBD8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2EB230-2577-4848-9328-A19A452D20DA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8759,18 +8759,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CFEDA526-5B74-4860-BE96-27E6203A64A3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E9B89A8-45C6-40CE-A859-554218645626}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C56888C4-C8E1-47A4-9701-3F548A62F514}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E497B16C-EA00-449C-932E-127CF99888A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CCE543B0-D4B6-4144-8387-D02DB1FD4BDE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8AECB6E0-3D37-42DA-88CE-88E2160ABD2C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77FDC624-4131-46A3-9C6D-6890F8C7F64B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B84DDF75-F982-4903-A32B-63FEEA0E8172}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BA835EA6-9E30-46A0-BBD2-176807B694A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4643B06E-6C54-4B1E-A6CC-4DA12B401C32}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{299284FA-A78B-4CE0-B195-6C55A35BBDEC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A03676B-0753-45D5-9F35-A3A3B9D8C6DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F64F5D4A-6E4F-4BC2-AB55-B3ED909EDA2B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F28CC6F2-95BF-4016-9539-A198CF8B650A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ADD99F71-44F3-49C2-AE5C-A0263C8BE473}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FFEF6071-C08A-4654-B264-F6E2C18CF3CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{198BE1C9-26A1-4BA9-B3A3-1926871A4B3F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{533B9F82-E7CE-44E3-B3EB-9D71208EA6A0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0B96C7E-490A-4CC7-9A92-26E270AF3C7B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81742745-EA76-46AC-8A42-272EE120DB9F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE7D5EDE-0688-46A4-9CEE-11B280DBB5F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{64773AF5-07B3-420A-984F-27AFCA783F2D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51AF8716-F2B7-447A-85BD-B8A0125EDA65}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F7DC51B-1286-4362-A929-D631714B8C67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8783,7 +8783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8B2BA9-7BCE-4BCA-927B-B84946C2E17E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02FC901-B534-4E09-8EEF-F77CDB65A82D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10002,18 +10002,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{403833A5-26EF-4174-9CC9-F51E6CC28CFF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA5E17A7-10FD-4640-8762-7CD6F07D74B3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3EBB4667-923A-4659-A819-7EEEEA88A2AF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{99F66750-B5D4-41B3-9C81-0F2C1C57379B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C42E61C-68A3-4007-86E9-88AD1B9D7892}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D9A498F2-4D1B-4D42-84E2-E5FCD963CA1A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5043DC53-6343-4236-A75F-2F561C3B5F93}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD7247BF-9B70-4D37-B0ED-B01C7CE33FF0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D82AB8F-D65A-4D5E-8610-46AB589548CC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F03E4BE3-B560-42DA-B0E5-69C6AF783E23}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3761FF48-549C-497D-A26B-F6F1BE26DBEC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D8E08D7-D24C-4041-9FC3-7FC14A88C3AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4ECD858-8070-4328-9D88-3799FCE99B78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4BA5C655-C374-4871-935D-B21188244A8D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F76A8214-2899-4D7B-9789-23C43CD59F75}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9741C212-776A-4185-8979-83B001282275}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF3DC448-0FE8-4B4E-A5F1-A7BB9F351955}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E180110-975B-4EB2-A433-F45F7CC12614}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6054626C-A5E8-4879-AA79-4F902E17D713}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF8BBD48-B987-4780-8D0F-037C80F16892}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{393E0CBC-1ABE-4589-A28C-B8C3AED5A16C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73154905-F1E4-47E2-AA97-9E1BD24D93B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AA86AF5-80CB-40AC-883D-0BD41A4C3F4D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3CDC1F39-5292-464A-ADAA-D46966F70F7F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10026,7 +10026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFDB110-770A-4446-AB49-6122A276F60E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5A931E-ADE6-41DC-930F-C74B717577D0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11245,18 +11245,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFD47317-1F91-44E6-9CA4-347C6AF23260}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD92CE21-8167-469B-92D2-EF82D8A6B2FE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE3638DD-9799-4877-8229-A0BC67109327}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{03FB1355-6E82-4D12-9F2A-5BA41C785C3F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C343213-3F0A-4025-BD69-3CB6293B99D5}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2FE1D4CC-A7F2-44CD-81A9-FA0DA964F684}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99952A83-825E-4C55-9BC8-BCB1E9AFEC8F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14386FB3-5C42-4CBE-973B-122EDB55FCC2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B83F8115-A125-4D31-AEC2-8F357C4D6A37}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E8AD414-4B5F-4C78-BB42-24A8F6C1CA71}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04F479AD-5875-454C-B6ED-645381635405}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B8B75BE-CFD8-4156-B3B1-384BB2A032B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95F767BB-C8BB-4339-B82F-F83C8090BAA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA2BABC8-C703-4B05-870A-882A8173BD6E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CF6B4F9B-AAD2-408F-86AE-EBE80AB939F6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{31ED17FF-502C-4E75-B757-DE0D29652564}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FE48D24-040B-4B81-A56E-66368D291AE8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F984A1FC-32EB-4545-AD94-D705881FD63D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E1C0904-B0FB-4DA2-9377-296804053B06}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07D8AA9D-73AF-4AFE-9E0C-2E873B50C679}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F36DF49-517F-4992-813A-61CE290AD389}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A370462-1517-4ABC-A6E4-95B27A473B83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB732437-AFDE-4ACC-A14D-B75108F0EEFE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF4210ED-AA2A-49E7-8E07-54E8D9BBF217}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11269,7 +11269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5756F-0D9C-43C1-99D0-2F3E85EBF593}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9A86F9-DB3E-40CF-B90C-40966CFEF97E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12488,18 +12488,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{699142B2-BD54-4BED-BA4C-BC4710B2A56D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21551322-1285-4974-908A-E4EC0D6D8AA0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E4C2128F-F983-4D53-9E3C-9EC2A54AA3A5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C5F224FD-6468-4247-8E75-CE634576027D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A08CF56F-8786-490B-A2E7-BA29709D457E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{94E73398-5626-4DAF-B493-075C9D68770A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5153823C-E633-49E8-B094-443C4964215B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1BBE939-C89A-4779-903D-BC6DE3011D20}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{504F508F-1356-4321-BC64-49A51135F914}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AE38B812-CE60-4E86-8082-94FF39885845}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EF4ADF5-C39F-4E60-A6E0-73652FF7C23C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF614E5F-2226-4271-A366-D5A07C474845}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B50E6CD8-4E4E-475F-934B-8033C1B3B327}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19E91C0B-F347-4C58-B085-D83F431FFDED}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B0FF0905-AFBB-4F57-9037-79572FBA3ACD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9B858AE0-341F-443E-9A44-B480217EC71E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0EFA5733-F1F3-4449-8612-7E85CC70DB9D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8A6FBEBE-170D-45B5-B056-22A2C8925092}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C03B946-158C-43C1-99E3-C41BA76741A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33565AB2-B9B6-4ABA-BBFC-CD1659E18ADD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D71A28D2-33E0-4476-AF27-BCCDE8FA9B83}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F1BFBE09-34FE-4859-96EA-1F89D4388C23}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E12D0FC-096E-47D3-BB95-885151E3427F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F16D27A-DEC7-47EE-936C-1A9D15D9C4F9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12512,7 +12512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073CC58D-EC03-4C97-8D3B-F809E1E28FF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CCCA11-5862-4C25-BFAD-C38BA90406A1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13731,18 +13731,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5313886-413A-4993-8D22-AB740C8DF1E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41D1FC33-020A-44BB-899A-77DBCE1CE5E8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{237D3BEE-44B9-4D9F-AFE3-3F95A42894F8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4D75B9CA-C476-4FDD-AADF-EABB8292538D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A510D53-83EA-4D50-B3C2-26BD2BD785EA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DB1E2C20-22ED-4E0D-BB98-605A43DB2985}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C24A2D7-00F6-4D34-BF34-E12245668262}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D971B086-443E-4D95-97B9-0C20FFB3F87F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8119428F-A8A2-4BFD-BE87-FFB7E3EFBD81}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{13518B78-7CD6-4326-87F0-731F285FDB0D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3996EC93-71DE-41A6-A28B-59D16FB48047}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F35A8F3-61C3-4ABD-B2FE-5CC6495D84E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CE557D4-59EC-4D10-A244-524D5BD3702F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68DC20F8-C2B6-4E5D-9B63-47D8559CDB45}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C9AD68BA-ACD8-4B9B-BA9C-11124FBC314A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7CE81F57-4917-41E8-BEC1-9741ACB5315F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{76A5A559-005D-4518-8DB1-922612A54709}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BCA9D73D-459C-47A2-8CDE-AC0E51132B53}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C5F0E78-9448-4CEA-80E5-09BFC0587B47}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2679D22-CF31-4A04-879B-A0B3068F8F5B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD0E0591-5F7D-460E-ADBB-7784BAE62720}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20B431B7-F344-433E-A1BF-0C339AF7D88E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D65E8154-E3B4-4FA9-87DB-265D0CF20AB9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02B88615-B547-497D-A8DB-8887222165CD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13755,7 +13755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035CEEB9-8AAB-4A1B-AE0F-804A797FC680}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3518959-934C-4F30-8E0E-E38C81503B9F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14974,18 +14974,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{080A2D91-88CC-4CD8-99F8-4612D250D5BD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02A9C467-BBA8-4E06-8AF4-561847BD9F61}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{921CE7DD-F20F-4DBE-9D0D-2ECC5AFD6F1E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{074E8751-0D6B-4277-A8A6-97DA7842E26D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B09B765F-BCC9-4E49-9082-A79F0796C97E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6A00EA3F-4E13-4E4E-A157-763943B4E92D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA40BB22-5B27-4A59-94DC-2911DB217723}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E14C363-6914-4E5A-B235-17F4DCA01E43}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3B15F26-E40B-451F-9F17-6E9F0E22E4D5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF0A3290-CF32-4FB0-9861-353CD4B05B1C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68AD0ED3-D938-4787-B3F6-FAC7FDF3358E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28BB1655-FA60-462B-9516-77A48CA22CB0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8532B08-AEF3-44CF-B4B0-E02AB4636FC0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4DEBB44-B0BD-4639-A6B5-457B329D272C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{94B58FFD-1C85-49E4-907B-8327EA998B66}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{11D99FCF-5110-4578-9C69-CA3DCF6A9DE8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{689EC8D1-0201-46AE-AA97-0F8F6CBD0A05}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{30259CAC-3E08-4D19-8D79-70CD7ED3207E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CE8E6FA-6FD9-432D-AB35-C359794DBAA9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99CB8386-D72B-4D36-81DE-A4B126B6432E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A7ED812-6487-4A66-BA83-31084D40940C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD1F5032-6AE8-489F-A3C8-BB144CFF795F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02BB9DAE-1F45-4986-966B-BB02BBA083B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3859E1E4-B49D-48A0-9DC7-B356E56122A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14998,7 +14998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE5C839-0DA8-4898-A7E7-BB7D4B0FF99B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF55D58-AD15-43C2-AFE3-596A0EB69A72}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16217,18 +16217,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B565D4F-5346-4C66-B042-414C4F106133}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D40C5857-9869-4299-9CA0-F2F7E7CA5E1F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{91FBC3D2-8FD1-4065-B70E-704916AB513F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB0EA4E3-27E3-4431-A24B-80FABA1EB062}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AA60978-E4C9-41A1-BB77-2C85ECDDE326}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2D6144B9-61F2-4FC3-85E1-564F0E4EE3D1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4A8233C-6B3A-49E8-A0BD-76FC70058538}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3CB824F-6589-41A4-AEA1-14D1E0215D5D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B83B3BD3-D249-426C-83A9-C3F6D7545846}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EA42069F-C5E1-44F5-A787-D67400A0A23B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D12625EE-134A-4B99-8A5F-CCE94DD2405E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4616BDB-7FBB-4404-973B-6F5C690ECD84}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC0E3032-46BE-4DE8-977C-3604963B251A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5BD8B8E1-5D05-4019-AB42-E4F5BE4077B4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3F8C7421-A2D1-4E89-9446-5C4E60B66C14}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EDBF3753-F662-4E0A-AE4D-B4789F87B7E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71D43EBD-AD28-4CF5-A357-A86AC704D194}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B285D997-9250-4B6C-8366-96E61F49AEF2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A529984-27C2-42B9-8FFF-AA367BAA796A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97BF329F-1855-444E-A756-73D1E4A40FC9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD7371B3-85ED-4250-ADAE-F44FA7CB5ADB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5658641A-3FE8-4953-8C6F-DA46F745EC7F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DEE3CCBA-E86B-4887-BF63-7A00CEC2E08B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0BBD0DD4-1DCE-4659-A34F-BA28ACE092EF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
